--- a/biology/Neurosciences/Christine_Beauchamp/Christine_Beauchamp.xlsx
+++ b/biology/Neurosciences/Christine_Beauchamp/Christine_Beauchamp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine "Sally" Beauchamp est le pseudonyme d'une patiente, de son vrai nom Clara Norton Fowler, suivie par le neurologiste américain Morton Prince entre 1898 et 1904.
-Elle est connue pour être l'une des premières personnes diagnostiquée comme ayant de multiples identités, maladie aujourd'hui connue sous le nom de trouble dissociatif de l'identité. Prince présente son cas dans un livre paru en 1906[1].
+Elle est connue pour être l'une des premières personnes diagnostiquée comme ayant de multiples identités, maladie aujourd'hui connue sous le nom de trouble dissociatif de l'identité. Prince présente son cas dans un livre paru en 1906.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Beauchamp est une étudiante de 23 ans lorsqu'elle prend contact avec Prince, un neurologiste de Boston aux États-Unis. Elle dit souffrir d'un « désordre nerveux ». Ses personnalités alternatives apparaissent pour la première fois sous hypnose mais émergent par la suite spontanément en état conscient. Prince donna un nom à chacune de ces personnalités et privilégia l'une d'entre elles. Prince « soigna » sa patiente en réconciliant les personnalités alternatives avec la personnalité principale de la patiente.
-Plus tard, Beauchamps épousa l'un des assistants de Prince[2].
-Prince décrit Beauchamps comme ayant trois principales personnalités, chacune ayant un niveau différent de connaissances des autres[1]:184,185. Il écrit « Bien que faisant usage du même corps, chacune a un caractère différent et bien distinct des autres, manifestant des pensées bien différentes, tout comme des vues, des croyances, des idées et des tempéraments différents; et par différentes expériences des goûts, des habitudes, des expériences et des souvenirs.. »[1]:1.
+Plus tard, Beauchamps épousa l'un des assistants de Prince.
+Prince décrit Beauchamps comme ayant trois principales personnalités, chacune ayant un niveau différent de connaissances des autres:184,185. Il écrit « Bien que faisant usage du même corps, chacune a un caractère différent et bien distinct des autres, manifestant des pensées bien différentes, tout comme des vues, des croyances, des idées et des tempéraments différents; et par différentes expériences des goûts, des habitudes, des expériences et des souvenirs.. »:1.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Importance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cas clinique est largement cité comme un cas prototypique de trouble dissociatif de l'identité, et ce jusque dans les années 1970[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cas clinique est largement cité comme un cas prototypique de trouble dissociatif de l'identité, et ce jusque dans les années 1970.
 </t>
         </is>
       </c>
